--- a/Project Outputs for PressurePulse_Brain-PCB/BOM/Bill of Materials-PressurePulse_Brain-PCB.xlsx
+++ b/Project Outputs for PressurePulse_Brain-PCB/BOM/Bill of Materials-PressurePulse_Brain-PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\Spring-2024\Senior-Design\ece_1896\electrical\PressurePulse_Brain-PCB\Project Outputs for PressurePulse_Brain-PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C220A94-C0D7-40F4-A1CA-F5D12A088B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D25E6-BF2A-441B-AC22-5E1D719053BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{D4D0A164-68BE-4262-B3C5-A6FA4033C675}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4D0A164-68BE-4262-B3C5-A6FA4033C675}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PressurePulse" sheetId="1" r:id="rId1"/>
@@ -44,15 +44,9 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>JLCPCB PN</t>
-  </si>
-  <si>
     <t>ANT1</t>
   </si>
   <si>
@@ -714,6 +708,12 @@
   </si>
   <si>
     <t>C182057</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>JLCPCB Part #</t>
   </si>
 </sst>
 </file>
@@ -1092,1058 +1092,1060 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAB58FF-F315-4D13-A0EA-7B7701C74AE5}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for PressurePulse_Brain-PCB/BOM/Bill of Materials-PressurePulse_Brain-PCB.xlsx
+++ b/Project Outputs for PressurePulse_Brain-PCB/BOM/Bill of Materials-PressurePulse_Brain-PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\Spring-2024\Senior-Design\ece_1896\electrical\PressurePulse_Brain-PCB\Project Outputs for PressurePulse_Brain-PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D25E6-BF2A-441B-AC22-5E1D719053BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5476F6-FB63-46B7-B1B2-5C9895BE2420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4D0A164-68BE-4262-B3C5-A6FA4033C675}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EF44199-A0C3-4F86-85D1-86FC3662B1AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PressurePulse" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="391">
   <si>
     <t>Designator</t>
   </si>
@@ -47,282 +47,465 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>JLCPCB PN</t>
+  </si>
+  <si>
     <t>ANT1</t>
   </si>
   <si>
-    <t>MGMA5220H2450-A04</t>
-  </si>
-  <si>
-    <t>ANTC5220X130N</t>
-  </si>
-  <si>
-    <t>C486321</t>
+    <t>ANT_ANT7020LL05R0870A_PUL-L</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
   <si>
     <t>BATT1</t>
   </si>
   <si>
+    <t>BAT_BS-7</t>
+  </si>
+  <si>
+    <t>C70376</t>
+  </si>
+  <si>
     <t>BS-2-1</t>
   </si>
   <si>
-    <t>BAT_BS-7</t>
-  </si>
-  <si>
-    <t>C70376</t>
-  </si>
-  <si>
-    <t>C1, C39, C40</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CAP_POL_SMD</t>
+  </si>
+  <si>
+    <t>C336392</t>
   </si>
   <si>
     <t>100uF</t>
   </si>
   <si>
-    <t>CAP_POL_SMD</t>
-  </si>
-  <si>
-    <t>C336392</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C8, C9, C11, C32, C35, C38, C41, C42, C43</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>0402C</t>
   </si>
   <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>0402C</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>C5, C15, C16, C17, C20, C21, C23</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C6, C7</t>
+    <t>C6</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C10, C33, C34</t>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>0805C</t>
+  </si>
+  <si>
+    <t>C5186812</t>
   </si>
   <si>
     <t>560pF</t>
   </si>
   <si>
-    <t>0805C, 0402C</t>
-  </si>
-  <si>
-    <t>C5186812, [NoValue]</t>
-  </si>
-  <si>
-    <t>C12, C13</t>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C45783</t>
   </si>
   <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>0805C</t>
-  </si>
-  <si>
-    <t>C45783</t>
-  </si>
-  <si>
-    <t>C14, C22, C30</t>
-  </si>
-  <si>
-    <t>C18, C19</t>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
   </si>
   <si>
     <t>C24</t>
   </si>
   <si>
+    <t>0603C</t>
+  </si>
+  <si>
+    <t>C907996</t>
+  </si>
+  <si>
     <t>0.8pF</t>
   </si>
   <si>
-    <t>C387965</t>
-  </si>
-  <si>
     <t>C25</t>
   </si>
   <si>
+    <t>C2986289</t>
+  </si>
+  <si>
     <t>0.3pF</t>
   </si>
   <si>
-    <t>C1855147</t>
-  </si>
-  <si>
-    <t>C26, C28</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>C27, C29</t>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C328913</t>
   </si>
   <si>
     <t>10pF</t>
   </si>
   <si>
-    <t>C328913</t>
-  </si>
-  <si>
-    <t>C31, C36, C37</t>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
+    <t>SMAF</t>
+  </si>
+  <si>
+    <t>C4749014</t>
+  </si>
+  <si>
     <t>SSL24F</t>
   </si>
   <si>
-    <t>SMAF</t>
-  </si>
-  <si>
-    <t>C4749014</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
+    <t>0603-LED</t>
+  </si>
+  <si>
+    <t>C72038</t>
+  </si>
+  <si>
     <t>19-213/Y2C-CQ2R2L/3T(CY)</t>
   </si>
   <si>
-    <t>0603-LED</t>
-  </si>
-  <si>
-    <t>C72038</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
+    <t>C118339</t>
+  </si>
+  <si>
     <t>D-060306B1</t>
   </si>
   <si>
-    <t>C118339</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
+    <t>C2286</t>
+  </si>
+  <si>
     <t>KT-0603R</t>
   </si>
   <si>
-    <t>C2286</t>
-  </si>
-  <si>
-    <t>D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36</t>
-  </si>
-  <si>
-    <t>RCLAMP0521P.TCT</t>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>BDFN2C051V40</t>
+  </si>
+  <si>
+    <t>C152023</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
   </si>
   <si>
     <t>D37</t>
   </si>
   <si>
+    <t>C434423</t>
+  </si>
+  <si>
     <t>SZYY0603YG</t>
   </si>
   <si>
-    <t>C434423</t>
-  </si>
-  <si>
-    <t>FB1, FB2</t>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>0603L</t>
+  </si>
+  <si>
+    <t>C531293</t>
   </si>
   <si>
     <t>MMZ1608Y102BTD25</t>
   </si>
   <si>
-    <t>0603L</t>
-  </si>
-  <si>
-    <t>C531293</t>
+    <t>FB2</t>
   </si>
   <si>
     <t>FLT1</t>
   </si>
   <si>
+    <t>DLF-4_1P6X0P8</t>
+  </si>
+  <si>
+    <t>C531364</t>
+  </si>
+  <si>
     <t>DLF162500LT-5028A1</t>
   </si>
   <si>
-    <t>DLF-4_1P6X0P8</t>
-  </si>
-  <si>
-    <t>C531364</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
     <t>18650_DUAL_PARALLEL</t>
   </si>
   <si>
-    <t>J2, J6</t>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>JST_PH-2POS-SMT-RA</t>
+  </si>
+  <si>
+    <t>C295747</t>
   </si>
   <si>
     <t>S2B-PH-SM4-TB</t>
   </si>
   <si>
-    <t>JST_PH-2POS-SMT-RA</t>
-  </si>
-  <si>
-    <t>C295747</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
+    <t>U.FL</t>
+  </si>
+  <si>
+    <t>C88374</t>
+  </si>
+  <si>
     <t>U.FL-R-SMT-1(80)</t>
   </si>
   <si>
-    <t>U.FL</t>
-  </si>
-  <si>
-    <t>C88374</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
+    <t>SMA TH RA</t>
+  </si>
+  <si>
+    <t>C914553</t>
+  </si>
+  <si>
     <t>SMA-KWE901</t>
   </si>
   <si>
-    <t>SMA TH RA</t>
-  </si>
-  <si>
-    <t>C914553</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
     <t>TAG CONNECT TC2030IDC - NO 3D MODEL</t>
   </si>
   <si>
+    <t>J6</t>
+  </si>
+  <si>
     <t>J7</t>
   </si>
   <si>
+    <t>GTTF003H018501</t>
+  </si>
+  <si>
     <t>GT-TF003-H0185-01</t>
   </si>
   <si>
-    <t>GTTF003H018501</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
+    <t>USB MICRO JLC</t>
+  </si>
+  <si>
+    <t>C5249562</t>
+  </si>
+  <si>
     <t>UA0507065250-037-06</t>
   </si>
   <si>
-    <t>USB MICRO JLC</t>
-  </si>
-  <si>
-    <t>C5249562</t>
-  </si>
-  <si>
     <t>J9</t>
   </si>
   <si>
@@ -350,24 +533,24 @@
     <t>L1</t>
   </si>
   <si>
+    <t>0805L</t>
+  </si>
+  <si>
+    <t>C71386</t>
+  </si>
+  <si>
     <t>2.2uH</t>
   </si>
   <si>
-    <t>0805L</t>
-  </si>
-  <si>
-    <t>C71386</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
+    <t>C963981</t>
+  </si>
+  <si>
     <t>2.7nH</t>
   </si>
   <si>
-    <t>C963981</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -377,58 +560,94 @@
     <t>L4</t>
   </si>
   <si>
+    <t>0402L</t>
+  </si>
+  <si>
+    <t>C963995</t>
+  </si>
+  <si>
     <t>10nH</t>
   </si>
   <si>
-    <t>C14457</t>
-  </si>
-  <si>
-    <t>L5, L6, L7</t>
-  </si>
-  <si>
-    <t>0402L</t>
-  </si>
-  <si>
-    <t>Q1, Q6, Q7</t>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>C110724</t>
   </si>
   <si>
     <t>PPMT12V4</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>C110724</t>
-  </si>
-  <si>
-    <t>Q2, Q3, Q4, Q5, Q8, Q9, Q10, Q11</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>C53658</t>
   </si>
   <si>
     <t>IRLML0100TRPBF</t>
   </si>
   <si>
-    <t>C53658</t>
-  </si>
-  <si>
-    <t>R1, R53</t>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0402R</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>0402R</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
+    <t>C784580</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
-    <t>C784580</t>
-  </si>
-  <si>
-    <t>R3, R17, R19, R21, R23, R50, R51, R52, R69</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>C843837</t>
   </si>
   <si>
     <t>10k</t>
@@ -437,109 +656,196 @@
     <t>R4</t>
   </si>
   <si>
-    <t>3.32k</t>
-  </si>
-  <si>
-    <t>C517700</t>
+    <t>C284517</t>
+  </si>
+  <si>
+    <t>ARG02FTC3321</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
+    <t>C25895</t>
+  </si>
+  <si>
     <t>44.2k</t>
   </si>
   <si>
-    <t>C25895</t>
-  </si>
-  <si>
-    <t>R6, R7</t>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0603-RES</t>
+  </si>
+  <si>
+    <t>C423071</t>
   </si>
   <si>
     <t>1.6k</t>
   </si>
   <si>
-    <t>0603-RES</t>
-  </si>
-  <si>
-    <t>C423071</t>
-  </si>
-  <si>
-    <t>R8, R9, R12, R13</t>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C319901</t>
   </si>
   <si>
     <t>11k</t>
   </si>
   <si>
-    <t>C319901</t>
-  </si>
-  <si>
-    <t>R10, R11</t>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>C237748</t>
   </si>
   <si>
     <t>180k</t>
   </si>
   <si>
-    <t>C237748</t>
-  </si>
-  <si>
-    <t>R14, R15</t>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>C319982</t>
   </si>
   <si>
     <t>1.5k</t>
   </si>
   <si>
-    <t>C319982</t>
+    <t>R15</t>
   </si>
   <si>
     <t>R16</t>
   </si>
   <si>
+    <t>2512R</t>
+  </si>
+  <si>
+    <t>C429515</t>
+  </si>
+  <si>
     <t>10m</t>
   </si>
   <si>
-    <t>2512R</t>
-  </si>
-  <si>
-    <t>C429515</t>
-  </si>
-  <si>
-    <t>R18, R28, R29, R30, R55, R56</t>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
   </si>
   <si>
     <t>R20</t>
   </si>
   <si>
+    <t>C3013385</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>C3013385</t>
-  </si>
-  <si>
-    <t>R22, R43, R44, R45, R46, R54, R70, R71</t>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>R24, R34, R35, R36, R39, R42, R57, R58, R59, R62</t>
-  </si>
-  <si>
-    <t>R25, R27, R68</t>
-  </si>
-  <si>
-    <t>R26, R31, R32, R33, R60, R61, R67</t>
-  </si>
-  <si>
-    <t>R37, R38</t>
-  </si>
-  <si>
-    <t>R40, R41</t>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
   </si>
   <si>
     <t>4.7k</t>
   </si>
   <si>
-    <t>R47, R49</t>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>C140218</t>
   </si>
   <si>
     <t>100k</t>
@@ -551,12 +857,78 @@
     <t>560k</t>
   </si>
   <si>
-    <t>R63, R64, R65, R66</t>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>R63</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -572,148 +944,274 @@
     <t>PEC11R-4220K-S0024</t>
   </si>
   <si>
-    <t>SW3, SW4, SW5</t>
+    <t>SW3</t>
   </si>
   <si>
     <t>TL6200</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP36, TP37, TP38, TP39, TP40, TP41</t>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TP - RH-5019</t>
+  </si>
+  <si>
+    <t>C5199800</t>
   </si>
   <si>
     <t>RH-5019</t>
   </si>
   <si>
-    <t>TP - RH-5019</t>
-  </si>
-  <si>
-    <t>C5199800</t>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>TP6</t>
+  </si>
+  <si>
+    <t>TP7</t>
+  </si>
+  <si>
+    <t>TP8</t>
+  </si>
+  <si>
+    <t>TP9</t>
+  </si>
+  <si>
+    <t>TP10</t>
+  </si>
+  <si>
+    <t>TP11</t>
+  </si>
+  <si>
+    <t>TP12</t>
+  </si>
+  <si>
+    <t>TP13</t>
+  </si>
+  <si>
+    <t>TP14</t>
+  </si>
+  <si>
+    <t>TP15</t>
+  </si>
+  <si>
+    <t>TP16</t>
+  </si>
+  <si>
+    <t>TP17</t>
+  </si>
+  <si>
+    <t>TP18</t>
+  </si>
+  <si>
+    <t>TP19</t>
+  </si>
+  <si>
+    <t>TP20</t>
+  </si>
+  <si>
+    <t>TP21</t>
+  </si>
+  <si>
+    <t>TP22</t>
+  </si>
+  <si>
+    <t>TP23</t>
+  </si>
+  <si>
+    <t>TP24</t>
+  </si>
+  <si>
+    <t>TP25</t>
+  </si>
+  <si>
+    <t>TP26</t>
+  </si>
+  <si>
+    <t>TP27</t>
+  </si>
+  <si>
+    <t>TP28</t>
+  </si>
+  <si>
+    <t>TP29</t>
+  </si>
+  <si>
+    <t>TP30</t>
+  </si>
+  <si>
+    <t>TP31</t>
+  </si>
+  <si>
+    <t>TP32</t>
+  </si>
+  <si>
+    <t>TP33</t>
+  </si>
+  <si>
+    <t>TP34</t>
+  </si>
+  <si>
+    <t>TP35</t>
+  </si>
+  <si>
+    <t>TP36</t>
+  </si>
+  <si>
+    <t>TP37</t>
+  </si>
+  <si>
+    <t>TP38</t>
+  </si>
+  <si>
+    <t>TP39</t>
+  </si>
+  <si>
+    <t>TP40</t>
+  </si>
+  <si>
+    <t>TP41</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
+    <t>12-VFQFN</t>
+  </si>
+  <si>
+    <t>C485916</t>
+  </si>
+  <si>
     <t>TPS2121RUXR</t>
   </si>
   <si>
-    <t>12-VFQFN</t>
-  </si>
-  <si>
-    <t>C485916</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>C7106</t>
+  </si>
+  <si>
     <t>TS393IDT</t>
   </si>
   <si>
-    <t>SOIC-8</t>
-  </si>
-  <si>
-    <t>C7106</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
+    <t>bq27441-G1</t>
+  </si>
+  <si>
+    <t>C473397</t>
+  </si>
+  <si>
     <t>BQ27441DRZR-G1A</t>
   </si>
   <si>
-    <t>bq27441-G1</t>
-  </si>
-  <si>
-    <t>C473397</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
+    <t>6-XDFN</t>
+  </si>
+  <si>
+    <t>C233363</t>
+  </si>
+  <si>
     <t>NCP176AMX330TCG</t>
   </si>
   <si>
-    <t>6-XDFN</t>
-  </si>
-  <si>
-    <t>C233363</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>C2071163</t>
+  </si>
+  <si>
     <t>TPS613222ADBVR</t>
   </si>
   <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>C2071163</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
+    <t>VQFN-68</t>
+  </si>
+  <si>
+    <t>C401505</t>
+  </si>
+  <si>
     <t>STM32WB55RGV6</t>
   </si>
   <si>
-    <t>VQFN-68</t>
-  </si>
-  <si>
-    <t>C401505</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
+    <t>16-WFQFN EXPOSED PAD</t>
+  </si>
+  <si>
+    <t>C910544</t>
+  </si>
+  <si>
     <t>MAX98357AETE+T</t>
   </si>
   <si>
-    <t>16-WFQFN EXPOSED PAD</t>
-  </si>
-  <si>
-    <t>C910544</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
+    <t>16-VFLGA</t>
+  </si>
+  <si>
+    <t>C15134</t>
+  </si>
+  <si>
     <t>LIS3DHTR</t>
   </si>
   <si>
-    <t>16-VFLGA</t>
-  </si>
-  <si>
-    <t>C15134</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
+    <t>32MHZ_SMD1612-4P</t>
+  </si>
+  <si>
+    <t>C341820</t>
+  </si>
+  <si>
     <t>XRCMD32M000FXP50R0</t>
   </si>
   <si>
-    <t>32MHZ_SMD1612-4P</t>
-  </si>
-  <si>
-    <t>C341820</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
+    <t>XTAL_ECS-.327-12.5-34B-TR</t>
+  </si>
+  <si>
+    <t>C182057</t>
+  </si>
+  <si>
     <t>CM315D32768DZFT</t>
   </si>
   <si>
-    <t>XTAL_ECS-.327-12.5-34B-TR</t>
-  </si>
-  <si>
-    <t>C182057</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>JLCPCB Part #</t>
+    <t>C2991630</t>
   </si>
 </sst>
 </file>
@@ -1089,24 +1587,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAB58FF-F315-4D13-A0EA-7B7701C74AE5}">
-  <dimension ref="A1:D77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41B045-3B7D-4641-BD3A-12A299E6F80D}">
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1115,15 +1612,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1134,1018 +1631,3200 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="2" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>222</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
